--- a/sulamericana/datasets_sula/3_classificacao_por_jogo_semi_sula.xlsx
+++ b/sulamericana/datasets_sula/3_classificacao_por_jogo_semi_sula.xlsx
@@ -475,16 +475,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>80.10009765625</v>
+        <v>153.30029296875</v>
       </c>
       <c r="H2">
-        <v>53.090087890625</v>
+        <v>145.460205078125</v>
       </c>
       <c r="I2">
-        <v>27.010009765625</v>
+        <v>7.840087890625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -498,10 +498,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -510,13 +510,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.090087890625</v>
+        <v>145.460205078125</v>
       </c>
       <c r="H3">
-        <v>80.10009765625</v>
+        <v>153.30029296875</v>
       </c>
       <c r="I3">
-        <v>-27.010009765625</v>
+        <v>-7.840087890625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -575,10 +575,10 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -587,13 +587,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>59.81005859375</v>
+        <v>165.31005859375</v>
       </c>
       <c r="H2">
-        <v>44.159912109375</v>
+        <v>126.739990234375</v>
       </c>
       <c r="I2">
-        <v>15.650146484375</v>
+        <v>38.570068359375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -616,16 +616,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>44.159912109375</v>
+        <v>126.739990234375</v>
       </c>
       <c r="H3">
-        <v>59.81005859375</v>
+        <v>165.31005859375</v>
       </c>
       <c r="I3">
-        <v>-15.650146484375</v>
+        <v>-38.570068359375</v>
       </c>
       <c r="J3">
         <v>2</v>
